--- a/data/pca/factorExposure/factorExposure_2014-07-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.007829188551328284</v>
+        <v>0.01928057920770574</v>
       </c>
       <c r="C2">
-        <v>-0.1304997465544112</v>
+        <v>-0.07250394810166508</v>
       </c>
       <c r="D2">
-        <v>0.03888769939974424</v>
+        <v>-0.03544449501425393</v>
       </c>
       <c r="E2">
-        <v>0.2166277350000921</v>
+        <v>0.01552277526396956</v>
       </c>
       <c r="F2">
-        <v>-0.05950270799551821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.02648045903501688</v>
+      </c>
+      <c r="G2">
+        <v>0.1576225313890492</v>
+      </c>
+      <c r="H2">
+        <v>-0.03479614002297627</v>
+      </c>
+      <c r="I2">
+        <v>0.01466610570523763</v>
+      </c>
+      <c r="J2">
+        <v>-0.1187790052191897</v>
+      </c>
+      <c r="K2">
+        <v>0.05796426974228121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01434109034889212</v>
+        <v>0.01929637558412588</v>
       </c>
       <c r="C4">
-        <v>-0.1716563002793225</v>
+        <v>-0.1412789814626584</v>
       </c>
       <c r="D4">
-        <v>0.04793413860168753</v>
+        <v>-0.06731153673569658</v>
       </c>
       <c r="E4">
-        <v>0.05885547282309748</v>
+        <v>0.00564906621493432</v>
       </c>
       <c r="F4">
-        <v>0.09034844566494983</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06062754030893395</v>
+      </c>
+      <c r="G4">
+        <v>0.03311840795805651</v>
+      </c>
+      <c r="H4">
+        <v>0.0154383811652071</v>
+      </c>
+      <c r="I4">
+        <v>-0.05448584378207896</v>
+      </c>
+      <c r="J4">
+        <v>-0.08764055613616241</v>
+      </c>
+      <c r="K4">
+        <v>0.00620116003886405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.0365216954190665</v>
+        <v>0.04067581508601837</v>
       </c>
       <c r="C6">
-        <v>-0.07380399868087358</v>
+        <v>-0.0854584255714665</v>
       </c>
       <c r="D6">
-        <v>0.06358517583275312</v>
+        <v>-0.03033997664546337</v>
       </c>
       <c r="E6">
-        <v>0.07080513207830032</v>
+        <v>-0.02428709881319206</v>
       </c>
       <c r="F6">
-        <v>0.008823719997460256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02203730729430122</v>
+      </c>
+      <c r="G6">
+        <v>0.04884390145027699</v>
+      </c>
+      <c r="H6">
+        <v>0.04623217636441444</v>
+      </c>
+      <c r="I6">
+        <v>-0.05393556300204229</v>
+      </c>
+      <c r="J6">
+        <v>0.02251695599360215</v>
+      </c>
+      <c r="K6">
+        <v>0.05464146575153919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.02013702363943981</v>
+        <v>0.0188458487707196</v>
       </c>
       <c r="C7">
-        <v>-0.08632800038278371</v>
+        <v>-0.07196618891810611</v>
       </c>
       <c r="D7">
-        <v>0.04928098910224082</v>
+        <v>-0.03441482610367766</v>
       </c>
       <c r="E7">
-        <v>0.0113616814357134</v>
+        <v>-0.003707500197350966</v>
       </c>
       <c r="F7">
-        <v>-0.0002915187825821259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.01164833545076542</v>
+      </c>
+      <c r="G7">
+        <v>-0.009622974548170835</v>
+      </c>
+      <c r="H7">
+        <v>0.02198902062013691</v>
+      </c>
+      <c r="I7">
+        <v>-0.05781651333746862</v>
+      </c>
+      <c r="J7">
+        <v>-0.09290609295154348</v>
+      </c>
+      <c r="K7">
+        <v>0.02457769436637093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.009373036289636108</v>
+        <v>0.001948722445009937</v>
       </c>
       <c r="C8">
-        <v>-0.07319398816803657</v>
+        <v>-0.06223717942432388</v>
       </c>
       <c r="D8">
-        <v>0.03627982224504276</v>
+        <v>-0.04762366922415098</v>
       </c>
       <c r="E8">
-        <v>0.06711491494351093</v>
+        <v>-0.03582210424554175</v>
       </c>
       <c r="F8">
-        <v>0.02432630140433433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02481492652433068</v>
+      </c>
+      <c r="G8">
+        <v>0.0605747241906074</v>
+      </c>
+      <c r="H8">
+        <v>-0.0132808044434831</v>
+      </c>
+      <c r="I8">
+        <v>-0.05377220076400447</v>
+      </c>
+      <c r="J8">
+        <v>-0.01124497316010514</v>
+      </c>
+      <c r="K8">
+        <v>-0.01249317150909955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.00980785166116869</v>
+        <v>0.01285233779747185</v>
       </c>
       <c r="C9">
-        <v>-0.120759053736853</v>
+        <v>-0.09906415857715063</v>
       </c>
       <c r="D9">
-        <v>0.05754370683775439</v>
+        <v>-0.04260826179940191</v>
       </c>
       <c r="E9">
-        <v>0.01336542802997917</v>
+        <v>0.02598025735949748</v>
       </c>
       <c r="F9">
-        <v>0.023670436596473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02966520718649355</v>
+      </c>
+      <c r="G9">
+        <v>0.0232893481992325</v>
+      </c>
+      <c r="H9">
+        <v>-0.004271925184130016</v>
+      </c>
+      <c r="I9">
+        <v>-0.06089570967895305</v>
+      </c>
+      <c r="J9">
+        <v>-0.09416194502560959</v>
+      </c>
+      <c r="K9">
+        <v>0.02095932314237651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2538215630099994</v>
+        <v>0.2455720120763951</v>
       </c>
       <c r="C10">
-        <v>0.07842414443594352</v>
+        <v>0.09483375102585406</v>
       </c>
       <c r="D10">
-        <v>-0.03208030211852098</v>
+        <v>0.008655166818081629</v>
       </c>
       <c r="E10">
-        <v>-0.02873320277724602</v>
+        <v>-0.06023050557656854</v>
       </c>
       <c r="F10">
-        <v>0.03443164966819719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01079142196588654</v>
+      </c>
+      <c r="G10">
+        <v>0.01853548854518675</v>
+      </c>
+      <c r="H10">
+        <v>0.03273790303395207</v>
+      </c>
+      <c r="I10">
+        <v>-0.04046200872224952</v>
+      </c>
+      <c r="J10">
+        <v>-0.01185928464535436</v>
+      </c>
+      <c r="K10">
+        <v>-0.1469463860624529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.007140360329232392</v>
+        <v>0.01752596825626901</v>
       </c>
       <c r="C11">
-        <v>-0.070332006900518</v>
+        <v>-0.07846991104534572</v>
       </c>
       <c r="D11">
-        <v>0.03375917668804368</v>
+        <v>-0.04188180696341772</v>
       </c>
       <c r="E11">
-        <v>-0.02276772375853883</v>
+        <v>0.01484576550262504</v>
       </c>
       <c r="F11">
-        <v>0.01387049215726284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.004899948565003046</v>
+      </c>
+      <c r="G11">
+        <v>-0.01047265569599197</v>
+      </c>
+      <c r="H11">
+        <v>-0.001875738732784301</v>
+      </c>
+      <c r="I11">
+        <v>-0.02481605999187639</v>
+      </c>
+      <c r="J11">
+        <v>-0.02599732580264115</v>
+      </c>
+      <c r="K11">
+        <v>0.02699305245303829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.007250999313492679</v>
+        <v>0.01689063683694677</v>
       </c>
       <c r="C12">
-        <v>-0.0470903852373503</v>
+        <v>-0.05257361038109907</v>
       </c>
       <c r="D12">
-        <v>0.03561592164428097</v>
+        <v>-0.02750714887932064</v>
       </c>
       <c r="E12">
-        <v>-0.01879108964999266</v>
+        <v>0.01135713225696071</v>
       </c>
       <c r="F12">
-        <v>-0.01222064043357877</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01605533223488445</v>
+      </c>
+      <c r="G12">
+        <v>0.002603335841098178</v>
+      </c>
+      <c r="H12">
+        <v>0.01782786688459486</v>
+      </c>
+      <c r="I12">
+        <v>-0.0308536921898101</v>
+      </c>
+      <c r="J12">
+        <v>-0.01827432256261171</v>
+      </c>
+      <c r="K12">
+        <v>0.01199299847589714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.0130154164853827</v>
+        <v>0.006650029503008503</v>
       </c>
       <c r="C13">
-        <v>-0.1268702960564669</v>
+        <v>-0.1095506814671109</v>
       </c>
       <c r="D13">
-        <v>0.07318535297264861</v>
+        <v>-0.045448388288049</v>
       </c>
       <c r="E13">
-        <v>0.03582847696630503</v>
+        <v>0.01100094412412835</v>
       </c>
       <c r="F13">
-        <v>-0.0595878557533289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02146349857880533</v>
+      </c>
+      <c r="G13">
+        <v>0.1605743327553807</v>
+      </c>
+      <c r="H13">
+        <v>0.09213244143619619</v>
+      </c>
+      <c r="I13">
+        <v>-0.01705442032975981</v>
+      </c>
+      <c r="J13">
+        <v>-0.213093409361375</v>
+      </c>
+      <c r="K13">
+        <v>-0.1893379594354092</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01381257871478689</v>
+        <v>0.02133730448790443</v>
       </c>
       <c r="C14">
-        <v>-0.08261093885926135</v>
+        <v>-0.07358387193154613</v>
       </c>
       <c r="D14">
-        <v>0.05040624893479274</v>
+        <v>-0.04970849969751108</v>
       </c>
       <c r="E14">
-        <v>0.01800771575840127</v>
+        <v>-0.004465867712731652</v>
       </c>
       <c r="F14">
-        <v>-0.03381429631752834</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03132183103103164</v>
+      </c>
+      <c r="G14">
+        <v>0.02845666074671858</v>
+      </c>
+      <c r="H14">
+        <v>0.06718110804292664</v>
+      </c>
+      <c r="I14">
+        <v>-0.1430194400792223</v>
+      </c>
+      <c r="J14">
+        <v>-0.1393583557988123</v>
+      </c>
+      <c r="K14">
+        <v>0.0139503915411001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.004360562017663033</v>
+        <v>0.003047513853494453</v>
       </c>
       <c r="C15">
-        <v>-0.08093144724288097</v>
+        <v>-0.07269507063236721</v>
       </c>
       <c r="D15">
-        <v>0.03072255540563523</v>
+        <v>-0.03288828316713483</v>
       </c>
       <c r="E15">
-        <v>0.02626644617830206</v>
+        <v>-0.00190701051565423</v>
       </c>
       <c r="F15">
-        <v>0.01399792640172741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.03446813447182748</v>
+      </c>
+      <c r="G15">
+        <v>0.01511066346677377</v>
+      </c>
+      <c r="H15">
+        <v>0.01686015343378804</v>
+      </c>
+      <c r="I15">
+        <v>-0.06300210566261231</v>
+      </c>
+      <c r="J15">
+        <v>-0.05404338963389153</v>
+      </c>
+      <c r="K15">
+        <v>0.02328551881197747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.008140290191085336</v>
+        <v>0.01640471090769892</v>
       </c>
       <c r="C16">
-        <v>-0.05493058965769718</v>
+        <v>-0.05941442315631035</v>
       </c>
       <c r="D16">
-        <v>0.02726504887253611</v>
+        <v>-0.02780665666462645</v>
       </c>
       <c r="E16">
-        <v>-0.01539306634130998</v>
+        <v>0.01063862425738992</v>
       </c>
       <c r="F16">
-        <v>0.001596921880788357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.000460390065142827</v>
+      </c>
+      <c r="G16">
+        <v>-0.006449417750970699</v>
+      </c>
+      <c r="H16">
+        <v>0.002357608136042084</v>
+      </c>
+      <c r="I16">
+        <v>-0.0159051863379885</v>
+      </c>
+      <c r="J16">
+        <v>-0.01790147139589771</v>
+      </c>
+      <c r="K16">
+        <v>0.0204673110027523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01140719622420048</v>
+        <v>0.01477476428842418</v>
       </c>
       <c r="C20">
-        <v>-0.09545609402632944</v>
+        <v>-0.08457642348174181</v>
       </c>
       <c r="D20">
-        <v>0.03636855890155674</v>
+        <v>-0.02807856140442829</v>
       </c>
       <c r="E20">
-        <v>-0.04141604083704452</v>
+        <v>-0.008204423587167879</v>
       </c>
       <c r="F20">
-        <v>0.0006221715422370659</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.0146550531222654</v>
+      </c>
+      <c r="G20">
+        <v>-0.01833612453181627</v>
+      </c>
+      <c r="H20">
+        <v>0.02647941030985725</v>
+      </c>
+      <c r="I20">
+        <v>-0.06640386662469439</v>
+      </c>
+      <c r="J20">
+        <v>-0.04804318673721</v>
+      </c>
+      <c r="K20">
+        <v>0.01602054139133429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.009144759483313994</v>
+        <v>0.01331406955326123</v>
       </c>
       <c r="C21">
-        <v>-0.08554689441580547</v>
+        <v>-0.06857886898556982</v>
       </c>
       <c r="D21">
-        <v>0.006122799621950349</v>
+        <v>-0.01907525280370471</v>
       </c>
       <c r="E21">
-        <v>0.04573487235207316</v>
+        <v>-0.01690398411159707</v>
       </c>
       <c r="F21">
-        <v>-0.08041840780743359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.06362225325133111</v>
+      </c>
+      <c r="G21">
+        <v>0.07098737134681743</v>
+      </c>
+      <c r="H21">
+        <v>0.008521737055466438</v>
+      </c>
+      <c r="I21">
+        <v>-0.08561352672416377</v>
+      </c>
+      <c r="J21">
+        <v>-0.113103837520616</v>
+      </c>
+      <c r="K21">
+        <v>-0.01637234075606958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.005294316577972954</v>
+        <v>0.007546568220421631</v>
       </c>
       <c r="C22">
-        <v>-0.2360403099320038</v>
+        <v>-0.1693934979844906</v>
       </c>
       <c r="D22">
-        <v>-0.06695620226851019</v>
+        <v>-0.02453874837932997</v>
       </c>
       <c r="E22">
-        <v>0.3266036427018646</v>
+        <v>-0.02605662246894826</v>
       </c>
       <c r="F22">
-        <v>0.2717063022467472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.3627836924047085</v>
+      </c>
+      <c r="G22">
+        <v>0.3693734040312125</v>
+      </c>
+      <c r="H22">
+        <v>0.02884056871783132</v>
+      </c>
+      <c r="I22">
+        <v>0.2846442081156701</v>
+      </c>
+      <c r="J22">
+        <v>0.1986737435618898</v>
+      </c>
+      <c r="K22">
+        <v>0.01168688562439211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.006188194705500147</v>
+        <v>0.01265075583691282</v>
       </c>
       <c r="C23">
-        <v>-0.2396401152073543</v>
+        <v>-0.1726782180770909</v>
       </c>
       <c r="D23">
-        <v>-0.07175228883077897</v>
+        <v>-0.02427725122589736</v>
       </c>
       <c r="E23">
-        <v>0.3209950165380498</v>
+        <v>-0.02141821055751391</v>
       </c>
       <c r="F23">
-        <v>0.2681932415818143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.3525791697704619</v>
+      </c>
+      <c r="G23">
+        <v>0.3602454528936004</v>
+      </c>
+      <c r="H23">
+        <v>0.02698449405092544</v>
+      </c>
+      <c r="I23">
+        <v>0.267602243557427</v>
+      </c>
+      <c r="J23">
+        <v>0.1825860181232916</v>
+      </c>
+      <c r="K23">
+        <v>0.01683832209475906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.00636304875284855</v>
+        <v>0.01714804162936644</v>
       </c>
       <c r="C24">
-        <v>-0.06123262117234589</v>
+        <v>-0.06327920036590151</v>
       </c>
       <c r="D24">
-        <v>0.04454384302293798</v>
+        <v>-0.04146094962400958</v>
       </c>
       <c r="E24">
-        <v>-0.0175400294772027</v>
+        <v>0.01350870774434686</v>
       </c>
       <c r="F24">
-        <v>0.008751788400563239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.003802502349485009</v>
+      </c>
+      <c r="G24">
+        <v>-0.00634023314736776</v>
+      </c>
+      <c r="H24">
+        <v>0.01315434542781617</v>
+      </c>
+      <c r="I24">
+        <v>-0.02989228767834581</v>
+      </c>
+      <c r="J24">
+        <v>-0.03461321170936054</v>
+      </c>
+      <c r="K24">
+        <v>0.02148271342339452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.007257799687617552</v>
+        <v>0.02122015670237766</v>
       </c>
       <c r="C25">
-        <v>-0.06703283809329232</v>
+        <v>-0.06703268309364528</v>
       </c>
       <c r="D25">
-        <v>0.02399224573207143</v>
+        <v>-0.03446355552847395</v>
       </c>
       <c r="E25">
-        <v>-0.01927372849833341</v>
+        <v>0.01752373294791124</v>
       </c>
       <c r="F25">
-        <v>-0.0003614705208800092</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.006451798917971305</v>
+      </c>
+      <c r="G25">
+        <v>-0.004164113438352422</v>
+      </c>
+      <c r="H25">
+        <v>0.004150154554753164</v>
+      </c>
+      <c r="I25">
+        <v>-0.0270635413887001</v>
+      </c>
+      <c r="J25">
+        <v>-0.03120000133748004</v>
+      </c>
+      <c r="K25">
+        <v>0.01031275476466733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.01060093231400416</v>
+        <v>0.02135375831144887</v>
       </c>
       <c r="C26">
-        <v>-0.0447914888178226</v>
+        <v>-0.05298702583785845</v>
       </c>
       <c r="D26">
-        <v>0.07421101794589935</v>
+        <v>-0.0613538616743937</v>
       </c>
       <c r="E26">
-        <v>-0.01313577314029519</v>
+        <v>0.0127154400407289</v>
       </c>
       <c r="F26">
-        <v>-0.0336126270696691</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.007744526849988343</v>
+      </c>
+      <c r="G26">
+        <v>-0.01011687541280075</v>
+      </c>
+      <c r="H26">
+        <v>-0.01377737998941832</v>
+      </c>
+      <c r="I26">
+        <v>-0.05772440015320262</v>
+      </c>
+      <c r="J26">
+        <v>-0.1103138033799109</v>
+      </c>
+      <c r="K26">
+        <v>0.07139259809696426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3429157704935537</v>
+        <v>0.3065593382817433</v>
       </c>
       <c r="C28">
-        <v>0.1037232356699107</v>
+        <v>0.1189690916354813</v>
       </c>
       <c r="D28">
-        <v>-0.036441892091007</v>
+        <v>0.03466411715511801</v>
       </c>
       <c r="E28">
-        <v>-0.02561292448300245</v>
+        <v>-0.01326620145635498</v>
       </c>
       <c r="F28">
-        <v>0.01471177189558572</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01327982925516627</v>
+      </c>
+      <c r="G28">
+        <v>0.04744568011108279</v>
+      </c>
+      <c r="H28">
+        <v>-0.1046979326357817</v>
+      </c>
+      <c r="I28">
+        <v>-0.01183511140449841</v>
+      </c>
+      <c r="J28">
+        <v>-0.03775704991084584</v>
+      </c>
+      <c r="K28">
+        <v>-0.2034190751997117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.007965884881237209</v>
+        <v>0.01762761968704286</v>
       </c>
       <c r="C29">
-        <v>-0.08423532225776384</v>
+        <v>-0.08169832280677047</v>
       </c>
       <c r="D29">
-        <v>0.05614080431437386</v>
+        <v>-0.04984294453319861</v>
       </c>
       <c r="E29">
-        <v>0.006947688156455665</v>
+        <v>0.0194667536560015</v>
       </c>
       <c r="F29">
-        <v>-0.02178771265827489</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03173800705324257</v>
+      </c>
+      <c r="G29">
+        <v>0.02801798625192253</v>
+      </c>
+      <c r="H29">
+        <v>0.1191177449627277</v>
+      </c>
+      <c r="I29">
+        <v>-0.1994214914142858</v>
+      </c>
+      <c r="J29">
+        <v>-0.1949837257254619</v>
+      </c>
+      <c r="K29">
+        <v>-0.005945988229581457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02563472980107644</v>
+        <v>0.03479779879135381</v>
       </c>
       <c r="C30">
-        <v>-0.1651833290476658</v>
+        <v>-0.1413471740452534</v>
       </c>
       <c r="D30">
-        <v>0.06954293579447536</v>
+        <v>-0.05481309483648745</v>
       </c>
       <c r="E30">
-        <v>0.04456517939403813</v>
+        <v>-0.01103950372594076</v>
       </c>
       <c r="F30">
-        <v>0.03315098746525909</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04000108161818616</v>
+      </c>
+      <c r="G30">
+        <v>0.0356819826371948</v>
+      </c>
+      <c r="H30">
+        <v>0.02378215843295705</v>
+      </c>
+      <c r="I30">
+        <v>-0.04837445261085011</v>
+      </c>
+      <c r="J30">
+        <v>-0.01885338578408536</v>
+      </c>
+      <c r="K30">
+        <v>0.06076170311696492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.001804176716732281</v>
+        <v>0.01453891387050611</v>
       </c>
       <c r="C31">
-        <v>-0.050653751041106</v>
+        <v>-0.07572418973732688</v>
       </c>
       <c r="D31">
-        <v>0.03638247550814363</v>
+        <v>-0.04351596958761412</v>
       </c>
       <c r="E31">
-        <v>-0.01958540681492926</v>
+        <v>0.0009957509065185214</v>
       </c>
       <c r="F31">
-        <v>-0.005654712159418848</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.006871148497351607</v>
+      </c>
+      <c r="G31">
+        <v>0.004334228062689825</v>
+      </c>
+      <c r="H31">
+        <v>-0.03102756278775602</v>
+      </c>
+      <c r="I31">
+        <v>-0.02728860223499087</v>
+      </c>
+      <c r="J31">
+        <v>-0.02669470406137418</v>
+      </c>
+      <c r="K31">
+        <v>0.009936569606916463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.01406160745127596</v>
+        <v>0.0212410969582001</v>
       </c>
       <c r="C32">
-        <v>-0.06964092786050054</v>
+        <v>-0.05381454373890471</v>
       </c>
       <c r="D32">
-        <v>0.01475007379828224</v>
+        <v>-0.02718556689576298</v>
       </c>
       <c r="E32">
-        <v>0.1574000944059276</v>
+        <v>0.02507802298433622</v>
       </c>
       <c r="F32">
-        <v>-0.004596816599151015</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.01137855573509675</v>
+      </c>
+      <c r="G32">
+        <v>0.114585789260471</v>
+      </c>
+      <c r="H32">
+        <v>0.06219786069050627</v>
+      </c>
+      <c r="I32">
+        <v>-0.07575389481892512</v>
+      </c>
+      <c r="J32">
+        <v>-0.1533044990662626</v>
+      </c>
+      <c r="K32">
+        <v>-0.2348055470762813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.009728333336050179</v>
+        <v>0.0172094885591144</v>
       </c>
       <c r="C33">
-        <v>-0.09654124690568321</v>
+        <v>-0.101215040290764</v>
       </c>
       <c r="D33">
-        <v>0.0607995294148533</v>
+        <v>-0.05371116025827256</v>
       </c>
       <c r="E33">
-        <v>-0.001115202778843259</v>
+        <v>-0.005723786533134972</v>
       </c>
       <c r="F33">
-        <v>0.004915007531583279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01952925372558544</v>
+      </c>
+      <c r="G33">
+        <v>0.0116484105079015</v>
+      </c>
+      <c r="H33">
+        <v>0.02184981074226553</v>
+      </c>
+      <c r="I33">
+        <v>-0.0351484727213326</v>
+      </c>
+      <c r="J33">
+        <v>-0.05354256268190994</v>
+      </c>
+      <c r="K33">
+        <v>-0.01632134588177424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.005099317535354111</v>
+        <v>0.01706549052740841</v>
       </c>
       <c r="C34">
-        <v>-0.05070500787908154</v>
+        <v>-0.04907308977977552</v>
       </c>
       <c r="D34">
-        <v>0.02554457514323276</v>
+        <v>-0.02204583343292294</v>
       </c>
       <c r="E34">
-        <v>-0.006352797144143142</v>
+        <v>0.0149310392951604</v>
       </c>
       <c r="F34">
-        <v>-0.01687904831733408</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.005538072721917296</v>
+      </c>
+      <c r="G34">
+        <v>-0.006287262498470001</v>
+      </c>
+      <c r="H34">
+        <v>0.01704429332048433</v>
+      </c>
+      <c r="I34">
+        <v>-0.02683468961737174</v>
+      </c>
+      <c r="J34">
+        <v>0.009138934311740454</v>
+      </c>
+      <c r="K34">
+        <v>0.01135028152881831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.002506390228731791</v>
+        <v>0.01070783803251033</v>
       </c>
       <c r="C35">
-        <v>-0.03241473282480533</v>
+        <v>-0.04726358104288642</v>
       </c>
       <c r="D35">
-        <v>0.01451648698517083</v>
+        <v>-0.0234323306176593</v>
       </c>
       <c r="E35">
-        <v>0.002683303393798608</v>
+        <v>-0.005449366885872419</v>
       </c>
       <c r="F35">
-        <v>-0.006853869593113374</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.002751896933144031</v>
+      </c>
+      <c r="G35">
+        <v>0.01307302099865104</v>
+      </c>
+      <c r="H35">
+        <v>0.0397033040110138</v>
+      </c>
+      <c r="I35">
+        <v>-0.1157399998798489</v>
+      </c>
+      <c r="J35">
+        <v>-0.0946994605065533</v>
+      </c>
+      <c r="K35">
+        <v>-0.0180410256651505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.00779101795392539</v>
+        <v>0.01346830671885381</v>
       </c>
       <c r="C36">
-        <v>-0.04939553226360949</v>
+        <v>-0.04501760032876221</v>
       </c>
       <c r="D36">
-        <v>0.05396765578926647</v>
+        <v>-0.04386649823773684</v>
       </c>
       <c r="E36">
-        <v>-0.006644652396459209</v>
+        <v>-0.006250671052391361</v>
       </c>
       <c r="F36">
-        <v>-0.005603325223825182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01255815425280783</v>
+      </c>
+      <c r="G36">
+        <v>0.01156544747280135</v>
+      </c>
+      <c r="H36">
+        <v>-0.01239334783553185</v>
+      </c>
+      <c r="I36">
+        <v>-0.04246745477016729</v>
+      </c>
+      <c r="J36">
+        <v>-0.08151643236436228</v>
+      </c>
+      <c r="K36">
+        <v>0.02464628061179821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02702397448496075</v>
+        <v>0.01013272172496512</v>
       </c>
       <c r="C38">
-        <v>-0.04466009027451064</v>
+        <v>-0.05578184137910394</v>
       </c>
       <c r="D38">
-        <v>0.02960614872310755</v>
+        <v>-0.03849594788323931</v>
       </c>
       <c r="E38">
-        <v>-0.02212571672370433</v>
+        <v>-0.04165999294345216</v>
       </c>
       <c r="F38">
-        <v>0.0009001854682939155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.02742774580710157</v>
+      </c>
+      <c r="G38">
+        <v>-0.003852390409574556</v>
+      </c>
+      <c r="H38">
+        <v>0.01566994488659171</v>
+      </c>
+      <c r="I38">
+        <v>-0.05062005367038663</v>
+      </c>
+      <c r="J38">
+        <v>-0.06231024880825545</v>
+      </c>
+      <c r="K38">
+        <v>-0.07022334195583337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.005847424328216142</v>
+        <v>0.02425972239670636</v>
       </c>
       <c r="C39">
-        <v>-0.1272050542018021</v>
+        <v>-0.1282945893973559</v>
       </c>
       <c r="D39">
-        <v>0.06340860592063996</v>
+        <v>-0.06169356095497285</v>
       </c>
       <c r="E39">
-        <v>-0.006359175009090715</v>
+        <v>-0.006426303923518244</v>
       </c>
       <c r="F39">
-        <v>-0.01200460473246049</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01277045137495305</v>
+      </c>
+      <c r="G39">
+        <v>-0.001612604504272444</v>
+      </c>
+      <c r="H39">
+        <v>0.03706873697184231</v>
+      </c>
+      <c r="I39">
+        <v>-0.05532387765798587</v>
+      </c>
+      <c r="J39">
+        <v>-0.0119741871260277</v>
+      </c>
+      <c r="K39">
+        <v>0.0966371800695633</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.01392088347458105</v>
+        <v>0.02103778349083774</v>
       </c>
       <c r="C40">
-        <v>-0.07603578964641</v>
+        <v>-0.07540841061987394</v>
       </c>
       <c r="D40">
-        <v>0.0298732051504014</v>
+        <v>-0.03551424369603585</v>
       </c>
       <c r="E40">
-        <v>0.04852815399303722</v>
+        <v>0.005395151290306454</v>
       </c>
       <c r="F40">
-        <v>0.06305214215419383</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.00262013672155346</v>
+      </c>
+      <c r="G40">
+        <v>0.02800828008788992</v>
+      </c>
+      <c r="H40">
+        <v>0.1226094967801232</v>
+      </c>
+      <c r="I40">
+        <v>-0.04761450410022671</v>
+      </c>
+      <c r="J40">
+        <v>-0.0634564724198836</v>
+      </c>
+      <c r="K40">
+        <v>-0.03605147805790702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01042956338463233</v>
+        <v>0.02228668994073668</v>
       </c>
       <c r="C41">
-        <v>-0.02657808556406114</v>
+        <v>-0.04702581438307793</v>
       </c>
       <c r="D41">
-        <v>0.002682811904871625</v>
+        <v>-0.01670433507912674</v>
       </c>
       <c r="E41">
-        <v>-0.01208615213164144</v>
+        <v>0.003046664437760862</v>
       </c>
       <c r="F41">
-        <v>-0.005818769171361981</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.007584321457497272</v>
+      </c>
+      <c r="G41">
+        <v>-0.01226630489648913</v>
+      </c>
+      <c r="H41">
+        <v>-0.01066261135768566</v>
+      </c>
+      <c r="I41">
+        <v>-0.008502244509638346</v>
+      </c>
+      <c r="J41">
+        <v>-0.02444521890324769</v>
+      </c>
+      <c r="K41">
+        <v>-0.02960770316119943</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.006113873379315216</v>
+        <v>0.01940401704515684</v>
       </c>
       <c r="C43">
-        <v>-0.0279352990478637</v>
+        <v>-0.04456297928679063</v>
       </c>
       <c r="D43">
-        <v>0.02814745085204239</v>
+        <v>-0.02951729391120667</v>
       </c>
       <c r="E43">
-        <v>-0.004983653342145782</v>
+        <v>-0.001996250371051829</v>
       </c>
       <c r="F43">
-        <v>0.00704374635642691</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.007367303754674931</v>
+      </c>
+      <c r="G43">
+        <v>-0.01039716902594005</v>
+      </c>
+      <c r="H43">
+        <v>-0.001749211823209431</v>
+      </c>
+      <c r="I43">
+        <v>-0.01948757550507569</v>
+      </c>
+      <c r="J43">
+        <v>-0.03182089152617132</v>
+      </c>
+      <c r="K43">
+        <v>-0.00184784978364507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01262246130329187</v>
+        <v>0.01648638468555043</v>
       </c>
       <c r="C44">
-        <v>-0.09858385511720445</v>
+        <v>-0.09551121734365159</v>
       </c>
       <c r="D44">
-        <v>0.04009064059406316</v>
+        <v>-0.06136208697729744</v>
       </c>
       <c r="E44">
-        <v>0.02728175571053572</v>
+        <v>-0.0227292392419784</v>
       </c>
       <c r="F44">
-        <v>0.03953604875907801</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.05602820071585311</v>
+      </c>
+      <c r="G44">
+        <v>0.03603424838578947</v>
+      </c>
+      <c r="H44">
+        <v>0.04849308622907528</v>
+      </c>
+      <c r="I44">
+        <v>-0.02290742932045061</v>
+      </c>
+      <c r="J44">
+        <v>-0.04632805445810108</v>
+      </c>
+      <c r="K44">
+        <v>0.06721417733601417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.004275931943428363</v>
+        <v>0.005054754711926592</v>
       </c>
       <c r="C46">
-        <v>-0.07084533751765379</v>
+        <v>-0.06650024329955495</v>
       </c>
       <c r="D46">
-        <v>0.06142528177131747</v>
+        <v>-0.02881297589465022</v>
       </c>
       <c r="E46">
-        <v>0.01264718862209768</v>
+        <v>-0.01390997184241038</v>
       </c>
       <c r="F46">
-        <v>-0.01185740567725692</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01379957632587541</v>
+      </c>
+      <c r="G46">
+        <v>0.00160514166172208</v>
+      </c>
+      <c r="H46">
+        <v>0.02364695323240363</v>
+      </c>
+      <c r="I46">
+        <v>-0.04328096854024664</v>
+      </c>
+      <c r="J46">
+        <v>-0.08897881793203027</v>
+      </c>
+      <c r="K46">
+        <v>0.009337761964692057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.008652089153511282</v>
+        <v>0.02102988872555174</v>
       </c>
       <c r="C47">
-        <v>-0.05853572859186305</v>
+        <v>-0.07098945753069182</v>
       </c>
       <c r="D47">
-        <v>0.04326828004077761</v>
+        <v>-0.04958430166219997</v>
       </c>
       <c r="E47">
-        <v>-0.030023559434764</v>
+        <v>0.0195391714386096</v>
       </c>
       <c r="F47">
-        <v>-0.04018998602146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.002538520542432429</v>
+      </c>
+      <c r="G47">
+        <v>-0.005358194592480308</v>
+      </c>
+      <c r="H47">
+        <v>-0.01035640452841771</v>
+      </c>
+      <c r="I47">
+        <v>-0.04298991565084389</v>
+      </c>
+      <c r="J47">
+        <v>-0.05792285331833991</v>
+      </c>
+      <c r="K47">
+        <v>-0.01768881373511121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.008786541547292831</v>
+        <v>0.01507154047969694</v>
       </c>
       <c r="C48">
-        <v>-0.05394158418214459</v>
+        <v>-0.04499725180617381</v>
       </c>
       <c r="D48">
-        <v>0.06248702128187559</v>
+        <v>-0.0528007789734365</v>
       </c>
       <c r="E48">
-        <v>-0.01914567560285658</v>
+        <v>0.01641189224484878</v>
       </c>
       <c r="F48">
-        <v>-0.007120281974000837</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02593398327126632</v>
+      </c>
+      <c r="G48">
+        <v>0.008353398196902916</v>
+      </c>
+      <c r="H48">
+        <v>-0.01700049514818523</v>
+      </c>
+      <c r="I48">
+        <v>-0.06028623343422929</v>
+      </c>
+      <c r="J48">
+        <v>-0.1106149169358346</v>
+      </c>
+      <c r="K48">
+        <v>0.05217083673840842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02286624581023849</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.05140746671510756</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.01267602091793954</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.03011555062700321</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.03558305880448698</v>
+      </c>
+      <c r="G49">
+        <v>-0.06620203856629855</v>
+      </c>
+      <c r="H49">
+        <v>0.06246817978359406</v>
+      </c>
+      <c r="I49">
+        <v>-0.04386053161840145</v>
+      </c>
+      <c r="J49">
+        <v>0.1143356244095364</v>
+      </c>
+      <c r="K49">
+        <v>0.05211236040865726</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.00289859190125489</v>
+        <v>0.01508997970831656</v>
       </c>
       <c r="C50">
-        <v>-0.05768110793059764</v>
+        <v>-0.07449048556660157</v>
       </c>
       <c r="D50">
-        <v>0.03603129137484144</v>
+        <v>-0.03332413870360422</v>
       </c>
       <c r="E50">
-        <v>0.002473740374438482</v>
+        <v>0.01041941089939345</v>
       </c>
       <c r="F50">
-        <v>0.00813750826072558</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01960866161610545</v>
+      </c>
+      <c r="G50">
+        <v>0.006676277505683162</v>
+      </c>
+      <c r="H50">
+        <v>-0.006743849091551527</v>
+      </c>
+      <c r="I50">
+        <v>-0.05441343853793525</v>
+      </c>
+      <c r="J50">
+        <v>-0.03684173476969372</v>
+      </c>
+      <c r="K50">
+        <v>-0.04938168176035642</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.003703338802857728</v>
+        <v>-0.005590706537634416</v>
       </c>
       <c r="C51">
-        <v>-0.07190994858368784</v>
+        <v>-0.03422318887722302</v>
       </c>
       <c r="D51">
-        <v>0.04413146479778959</v>
+        <v>-0.02522696088862431</v>
       </c>
       <c r="E51">
-        <v>0.03289394925934085</v>
+        <v>-0.02537494310231848</v>
       </c>
       <c r="F51">
-        <v>0.01527812924369275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.007485796379961838</v>
+      </c>
+      <c r="G51">
+        <v>0.02438866270046542</v>
+      </c>
+      <c r="H51">
+        <v>0.02016644576273606</v>
+      </c>
+      <c r="I51">
+        <v>-0.04162676764938286</v>
+      </c>
+      <c r="J51">
+        <v>-0.09928122192038677</v>
+      </c>
+      <c r="K51">
+        <v>0.02946921757359471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03303059207343554</v>
+        <v>0.06068312126333742</v>
       </c>
       <c r="C53">
-        <v>-0.0974929383283981</v>
+        <v>-0.1280005310303373</v>
       </c>
       <c r="D53">
-        <v>0.05771742468916415</v>
+        <v>-0.05929390217691938</v>
       </c>
       <c r="E53">
-        <v>-0.1173242958163141</v>
+        <v>0.02546788625226595</v>
       </c>
       <c r="F53">
-        <v>-0.02443822251915357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04588840787613673</v>
+      </c>
+      <c r="G53">
+        <v>-0.0388672811156083</v>
+      </c>
+      <c r="H53">
+        <v>-0.08876659793425158</v>
+      </c>
+      <c r="I53">
+        <v>0.02371486287604867</v>
+      </c>
+      <c r="J53">
+        <v>0.01568445072950926</v>
+      </c>
+      <c r="K53">
+        <v>-0.0244834615020422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.004768151740758238</v>
+        <v>0.01696726543184383</v>
       </c>
       <c r="C54">
-        <v>-0.07394445724949067</v>
+        <v>-0.07177523189564879</v>
       </c>
       <c r="D54">
-        <v>0.01730786625804796</v>
+        <v>-0.01359688607139168</v>
       </c>
       <c r="E54">
-        <v>-0.02532648846251282</v>
+        <v>0.0106374145903356</v>
       </c>
       <c r="F54">
-        <v>0.002694474957855825</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.001905517982831646</v>
+      </c>
+      <c r="G54">
+        <v>-0.003113667244010407</v>
+      </c>
+      <c r="H54">
+        <v>0.00371163164913824</v>
+      </c>
+      <c r="I54">
+        <v>-0.0292349272333479</v>
+      </c>
+      <c r="J54">
+        <v>-0.05217013621663344</v>
+      </c>
+      <c r="K54">
+        <v>0.02979374253981158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01381580747018908</v>
+        <v>0.03051908241164455</v>
       </c>
       <c r="C55">
-        <v>-0.06752323981484953</v>
+        <v>-0.07981981117543266</v>
       </c>
       <c r="D55">
-        <v>0.06123664382740755</v>
+        <v>-0.0550401974611161</v>
       </c>
       <c r="E55">
-        <v>-0.06051065262588215</v>
+        <v>0.02554316498425972</v>
       </c>
       <c r="F55">
-        <v>-0.02656508449667132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.02612743192019424</v>
+      </c>
+      <c r="G55">
+        <v>-0.0315834681929885</v>
+      </c>
+      <c r="H55">
+        <v>-0.03801809916471485</v>
+      </c>
+      <c r="I55">
+        <v>0.009379548665450802</v>
+      </c>
+      <c r="J55">
+        <v>-0.00699738048007151</v>
+      </c>
+      <c r="K55">
+        <v>0.009368848051445604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01397555321491274</v>
+        <v>0.04936207284117709</v>
       </c>
       <c r="C56">
-        <v>-0.1329341063159116</v>
+        <v>-0.1479211190285789</v>
       </c>
       <c r="D56">
-        <v>0.06993727920269846</v>
+        <v>-0.08493648299064016</v>
       </c>
       <c r="E56">
-        <v>-0.08151449626919556</v>
+        <v>0.05037678697314088</v>
       </c>
       <c r="F56">
-        <v>-0.0363908980064362</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.08729451774637834</v>
+      </c>
+      <c r="G56">
+        <v>-0.04881724027753463</v>
+      </c>
+      <c r="H56">
+        <v>-0.1618547439638078</v>
+      </c>
+      <c r="I56">
+        <v>0.03048567082936554</v>
+      </c>
+      <c r="J56">
+        <v>0.04146537705237461</v>
+      </c>
+      <c r="K56">
+        <v>-0.0009869010260902019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02522106836062348</v>
+        <v>0.01532938946262333</v>
       </c>
       <c r="C58">
-        <v>-0.2714070334272808</v>
+        <v>-0.1672438898499689</v>
       </c>
       <c r="D58">
-        <v>-0.01127291692492226</v>
+        <v>-0.04759281877770196</v>
       </c>
       <c r="E58">
-        <v>0.1993609498543293</v>
+        <v>-0.1203715834402869</v>
       </c>
       <c r="F58">
-        <v>0.1926846385936755</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2047478439473148</v>
+      </c>
+      <c r="G58">
+        <v>0.2583621420592848</v>
+      </c>
+      <c r="H58">
+        <v>-0.05011511929286611</v>
+      </c>
+      <c r="I58">
+        <v>0.01340917295252126</v>
+      </c>
+      <c r="J58">
+        <v>-0.1500920147916664</v>
+      </c>
+      <c r="K58">
+        <v>-0.0349537262149786</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2928653477429911</v>
+        <v>0.2887241167918546</v>
       </c>
       <c r="C59">
-        <v>0.002550725968312165</v>
+        <v>0.05332645930853454</v>
       </c>
       <c r="D59">
-        <v>-0.008579796747556193</v>
+        <v>0.006204920125990325</v>
       </c>
       <c r="E59">
-        <v>0.06269653288419876</v>
+        <v>-0.006267747217907103</v>
       </c>
       <c r="F59">
-        <v>-0.03881726203366741</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01596329086026031</v>
+      </c>
+      <c r="G59">
+        <v>0.05700822459732335</v>
+      </c>
+      <c r="H59">
+        <v>-0.004616762349248077</v>
+      </c>
+      <c r="I59">
+        <v>0.01947475390857868</v>
+      </c>
+      <c r="J59">
+        <v>0.003177547649361699</v>
+      </c>
+      <c r="K59">
+        <v>-0.03113330878997479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.124927291384938</v>
+        <v>0.1541715569083111</v>
       </c>
       <c r="C60">
-        <v>-0.1466052931773617</v>
+        <v>-0.1617594836351109</v>
       </c>
       <c r="D60">
-        <v>0.0703679044621688</v>
+        <v>-0.03885135386198624</v>
       </c>
       <c r="E60">
-        <v>-0.1334443905201785</v>
+        <v>0.1131471796091593</v>
       </c>
       <c r="F60">
-        <v>-0.240241519671427</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1028237988220471</v>
+      </c>
+      <c r="G60">
+        <v>-0.1033554246516022</v>
+      </c>
+      <c r="H60">
+        <v>0.2561353486322256</v>
+      </c>
+      <c r="I60">
+        <v>0.17750553596885</v>
+      </c>
+      <c r="J60">
+        <v>0.1225512305101828</v>
+      </c>
+      <c r="K60">
+        <v>0.04142587119383016</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.006480875609818007</v>
+        <v>0.02457332802393551</v>
       </c>
       <c r="C61">
-        <v>-0.08642246707376475</v>
+        <v>-0.09739072195388347</v>
       </c>
       <c r="D61">
-        <v>0.0699286313903727</v>
+        <v>-0.05469163975186624</v>
       </c>
       <c r="E61">
-        <v>-0.03218772771045945</v>
+        <v>0.009929569971885963</v>
       </c>
       <c r="F61">
-        <v>-0.02705359187806484</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01418197321485508</v>
+      </c>
+      <c r="G61">
+        <v>-0.02017471259893702</v>
+      </c>
+      <c r="H61">
+        <v>0.02095344248588478</v>
+      </c>
+      <c r="I61">
+        <v>-0.05999003617349172</v>
+      </c>
+      <c r="J61">
+        <v>-0.01812351067953418</v>
+      </c>
+      <c r="K61">
+        <v>0.0341308720446629</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002516643147263653</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01514162048760525</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003703712488610046</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.02522243322328152</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.0240554546648088</v>
+      </c>
+      <c r="G62">
+        <v>0.005853798254121734</v>
+      </c>
+      <c r="H62">
+        <v>0.01784588711241712</v>
+      </c>
+      <c r="I62">
+        <v>-0.01843832651123587</v>
+      </c>
+      <c r="J62">
+        <v>-0.006890320628847553</v>
+      </c>
+      <c r="K62">
+        <v>-0.007061670726846059</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0001547234203019584</v>
+        <v>0.02584050384405354</v>
       </c>
       <c r="C63">
-        <v>-0.05202298677867889</v>
+        <v>-0.06106365496591128</v>
       </c>
       <c r="D63">
-        <v>0.04390970200188159</v>
+        <v>-0.06048045368643931</v>
       </c>
       <c r="E63">
-        <v>-0.006722118754375946</v>
+        <v>0.007550454847792035</v>
       </c>
       <c r="F63">
-        <v>0.006751146310834144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.007696914614732181</v>
+      </c>
+      <c r="G63">
+        <v>-0.004938797956054937</v>
+      </c>
+      <c r="H63">
+        <v>-0.007883537347307531</v>
+      </c>
+      <c r="I63">
+        <v>-0.05262595146072862</v>
+      </c>
+      <c r="J63">
+        <v>-0.03950832733812306</v>
+      </c>
+      <c r="K63">
+        <v>0.02125299140592135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.005102934526350144</v>
+        <v>0.01798633480603019</v>
       </c>
       <c r="C64">
-        <v>-0.09588147558974444</v>
+        <v>-0.09344660950902785</v>
       </c>
       <c r="D64">
-        <v>0.06803398239202066</v>
+        <v>-0.03699608601605854</v>
       </c>
       <c r="E64">
-        <v>-0.01338708045340781</v>
+        <v>0.02605279567418724</v>
       </c>
       <c r="F64">
-        <v>0.02455715940052674</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04800714616552363</v>
+      </c>
+      <c r="G64">
+        <v>0.00908295484800592</v>
+      </c>
+      <c r="H64">
+        <v>0.04513056109608391</v>
+      </c>
+      <c r="I64">
+        <v>-0.02997717606461551</v>
+      </c>
+      <c r="J64">
+        <v>-0.03320068231831852</v>
+      </c>
+      <c r="K64">
+        <v>0.08642732662117354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.0160778067109541</v>
+        <v>0.0331254856568966</v>
       </c>
       <c r="C65">
-        <v>-0.08542363765850976</v>
+        <v>-0.09289761317237916</v>
       </c>
       <c r="D65">
-        <v>0.02637648234120102</v>
+        <v>-0.02331982785434986</v>
       </c>
       <c r="E65">
-        <v>0.02703675386582181</v>
+        <v>-0.01130777223217808</v>
       </c>
       <c r="F65">
-        <v>-0.007252373527204635</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.004271229509919307</v>
+      </c>
+      <c r="G65">
+        <v>-0.009886131687081925</v>
+      </c>
+      <c r="H65">
+        <v>0.08315054299123471</v>
+      </c>
+      <c r="I65">
+        <v>0.004841507996371265</v>
+      </c>
+      <c r="J65">
+        <v>-0.003740196768244067</v>
+      </c>
+      <c r="K65">
+        <v>0.08499376775733421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.000662574554280974</v>
+        <v>0.02226232916102825</v>
       </c>
       <c r="C66">
-        <v>-0.1762825836332118</v>
+        <v>-0.1704513787150719</v>
       </c>
       <c r="D66">
-        <v>0.05200189349089075</v>
+        <v>-0.05481176909014718</v>
       </c>
       <c r="E66">
-        <v>0.01785606569225005</v>
+        <v>-0.009439686813578938</v>
       </c>
       <c r="F66">
-        <v>-0.01394083532034411</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01322021130493882</v>
+      </c>
+      <c r="G66">
+        <v>0.01120013117687215</v>
+      </c>
+      <c r="H66">
+        <v>0.02452538419086022</v>
+      </c>
+      <c r="I66">
+        <v>-0.06692444185636992</v>
+      </c>
+      <c r="J66">
+        <v>-0.01828036386830031</v>
+      </c>
+      <c r="K66">
+        <v>0.07098207821532569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.0288041356850677</v>
+        <v>0.01979553118831997</v>
       </c>
       <c r="C67">
-        <v>-0.02224933468445717</v>
+        <v>-0.04878470159250155</v>
       </c>
       <c r="D67">
-        <v>0.04341277223952766</v>
+        <v>-0.03947697838634678</v>
       </c>
       <c r="E67">
-        <v>-0.05789339540587369</v>
+        <v>-0.03389081653548103</v>
       </c>
       <c r="F67">
-        <v>-0.02154391597473122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.00241572239448752</v>
+      </c>
+      <c r="G67">
+        <v>-0.03080520269654791</v>
+      </c>
+      <c r="H67">
+        <v>0.04006755691326577</v>
+      </c>
+      <c r="I67">
+        <v>-0.01932310583812012</v>
+      </c>
+      <c r="J67">
+        <v>-0.06081179843173797</v>
+      </c>
+      <c r="K67">
+        <v>-0.05496298130861983</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2981423125306386</v>
+        <v>0.2929089716942055</v>
       </c>
       <c r="C68">
-        <v>0.02711566004391767</v>
+        <v>0.07908300948472836</v>
       </c>
       <c r="D68">
-        <v>0.004254873611503935</v>
+        <v>0.0276951938326012</v>
       </c>
       <c r="E68">
-        <v>0.02861431047844143</v>
+        <v>0.01665519731417919</v>
       </c>
       <c r="F68">
-        <v>0.004951923718905876</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02141348025095731</v>
+      </c>
+      <c r="G68">
+        <v>0.03585078471325623</v>
+      </c>
+      <c r="H68">
+        <v>-0.02260375122057101</v>
+      </c>
+      <c r="I68">
+        <v>-0.01573832068498447</v>
+      </c>
+      <c r="J68">
+        <v>-0.03449721694260313</v>
+      </c>
+      <c r="K68">
+        <v>-0.04258792585861381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01049810959407513</v>
+        <v>0.01016980552903718</v>
       </c>
       <c r="C69">
-        <v>-0.05529574908208745</v>
+        <v>-0.04541149513128393</v>
       </c>
       <c r="D69">
-        <v>0.04740366923885561</v>
+        <v>-0.02686615445492762</v>
       </c>
       <c r="E69">
-        <v>-0.03576023433975284</v>
+        <v>-0.0020822442609339</v>
       </c>
       <c r="F69">
-        <v>-0.005452424374626851</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.01037681016793771</v>
+      </c>
+      <c r="G69">
+        <v>-0.003766765444553865</v>
+      </c>
+      <c r="H69">
+        <v>0.01629275371491199</v>
+      </c>
+      <c r="I69">
+        <v>-0.006945478605030589</v>
+      </c>
+      <c r="J69">
+        <v>-0.03550529941816006</v>
+      </c>
+      <c r="K69">
+        <v>-0.02705106230948081</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.287394222650764</v>
+        <v>0.2752184719334325</v>
       </c>
       <c r="C71">
-        <v>0.0383903875674354</v>
+        <v>0.07910218343829985</v>
       </c>
       <c r="D71">
-        <v>-0.01030000080440216</v>
+        <v>0.02249667475426526</v>
       </c>
       <c r="E71">
-        <v>0.02612302574235184</v>
+        <v>-0.01029028340969318</v>
       </c>
       <c r="F71">
-        <v>0.03874389085130008</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.04788076032004723</v>
+      </c>
+      <c r="G71">
+        <v>0.04676459316580819</v>
+      </c>
+      <c r="H71">
+        <v>-0.02569506323966027</v>
+      </c>
+      <c r="I71">
+        <v>-0.01600434164913994</v>
+      </c>
+      <c r="J71">
+        <v>-0.0527138933918153</v>
+      </c>
+      <c r="K71">
+        <v>-0.1130602705075084</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.017567804604541</v>
+        <v>0.05673467160425825</v>
       </c>
       <c r="C72">
-        <v>-0.1411781735510327</v>
+        <v>-0.1354283889134179</v>
       </c>
       <c r="D72">
-        <v>0.07597843735011704</v>
+        <v>-0.05391721834948168</v>
       </c>
       <c r="E72">
-        <v>-0.007305852862602028</v>
+        <v>0.04767458841355195</v>
       </c>
       <c r="F72">
-        <v>0.03896244075986781</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.01951365728855765</v>
+      </c>
+      <c r="G72">
+        <v>-0.02246902872870316</v>
+      </c>
+      <c r="H72">
+        <v>-0.01502962455933182</v>
+      </c>
+      <c r="I72">
+        <v>-0.03293625631366397</v>
+      </c>
+      <c r="J72">
+        <v>-0.03645956649665495</v>
+      </c>
+      <c r="K72">
+        <v>0.1119465854842513</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.09796830421962774</v>
+        <v>0.1575165011528213</v>
       </c>
       <c r="C73">
-        <v>-0.1147876993267544</v>
+        <v>-0.196111123473669</v>
       </c>
       <c r="D73">
-        <v>0.1071923956616203</v>
+        <v>-0.08045054665787971</v>
       </c>
       <c r="E73">
-        <v>-0.2046956807685623</v>
+        <v>0.06093345302592232</v>
       </c>
       <c r="F73">
-        <v>-0.2727106129648427</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1405739539594697</v>
+      </c>
+      <c r="G73">
+        <v>-0.1976933718350416</v>
+      </c>
+      <c r="H73">
+        <v>0.4074814958514126</v>
+      </c>
+      <c r="I73">
+        <v>0.2292360592247014</v>
+      </c>
+      <c r="J73">
+        <v>0.1474022585461294</v>
+      </c>
+      <c r="K73">
+        <v>-0.1061169878187791</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01717310330792625</v>
+        <v>0.0386515092806783</v>
       </c>
       <c r="C74">
-        <v>-0.08058233204593925</v>
+        <v>-0.09684860613963026</v>
       </c>
       <c r="D74">
-        <v>0.07387697903972953</v>
+        <v>-0.04541703552022014</v>
       </c>
       <c r="E74">
-        <v>-0.06700408933657437</v>
+        <v>0.02325572322891271</v>
       </c>
       <c r="F74">
-        <v>-0.03079329276974527</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.004795194811399461</v>
+      </c>
+      <c r="G74">
+        <v>-0.03163066888751063</v>
+      </c>
+      <c r="H74">
+        <v>-0.05458677745468147</v>
+      </c>
+      <c r="I74">
+        <v>0.01684756550218306</v>
+      </c>
+      <c r="J74">
+        <v>-0.02962668088925424</v>
+      </c>
+      <c r="K74">
+        <v>0.01900850986564038</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03358549538353978</v>
+        <v>0.06335871132140312</v>
       </c>
       <c r="C75">
-        <v>-0.1338429810689297</v>
+        <v>-0.1580351457865835</v>
       </c>
       <c r="D75">
-        <v>0.0621997190592995</v>
+        <v>-0.09056542473191169</v>
       </c>
       <c r="E75">
-        <v>-0.1455498688071446</v>
+        <v>0.04151760660228632</v>
       </c>
       <c r="F75">
-        <v>-0.01260472717552489</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.02779970341114075</v>
+      </c>
+      <c r="G75">
+        <v>-0.1013691894670664</v>
+      </c>
+      <c r="H75">
+        <v>-0.2159541475526228</v>
+      </c>
+      <c r="I75">
+        <v>-0.02071588905163159</v>
+      </c>
+      <c r="J75">
+        <v>0.03823940830105265</v>
+      </c>
+      <c r="K75">
+        <v>-0.1502654364496592</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.008339357922287472</v>
+        <v>0.04593259271367604</v>
       </c>
       <c r="C76">
-        <v>-0.1049085107309295</v>
+        <v>-0.1250129409229215</v>
       </c>
       <c r="D76">
-        <v>0.06331025975240891</v>
+        <v>-0.07704726393706965</v>
       </c>
       <c r="E76">
-        <v>-0.09419789524918365</v>
+        <v>0.01921746592061215</v>
       </c>
       <c r="F76">
-        <v>-0.03980736880623167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.05444434464661187</v>
+      </c>
+      <c r="G76">
+        <v>-0.06122906709674712</v>
+      </c>
+      <c r="H76">
+        <v>-0.08237281137722854</v>
+      </c>
+      <c r="I76">
+        <v>-0.008407869892247739</v>
+      </c>
+      <c r="J76">
+        <v>0.04341500348741585</v>
+      </c>
+      <c r="K76">
+        <v>0.01767323551107228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08383410387074185</v>
+        <v>0.05506430558184176</v>
       </c>
       <c r="C77">
-        <v>-0.3692238369397701</v>
+        <v>-0.4155361357516374</v>
       </c>
       <c r="D77">
-        <v>-0.8563421119529937</v>
+        <v>0.8925602120087849</v>
       </c>
       <c r="E77">
-        <v>-0.2489536206092671</v>
+        <v>0.01791675899392562</v>
       </c>
       <c r="F77">
-        <v>-0.09222599660743623</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.005407141628527053</v>
+      </c>
+      <c r="G77">
+        <v>-0.06487492928518279</v>
+      </c>
+      <c r="H77">
+        <v>-0.05042983272515253</v>
+      </c>
+      <c r="I77">
+        <v>-0.08590835401113626</v>
+      </c>
+      <c r="J77">
+        <v>0.003000414665500061</v>
+      </c>
+      <c r="K77">
+        <v>-0.02465145921744519</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02672673661061903</v>
+        <v>0.03779785925614728</v>
       </c>
       <c r="C78">
-        <v>-0.1206861921931544</v>
+        <v>-0.1107741738471624</v>
       </c>
       <c r="D78">
-        <v>0.1603112503666241</v>
+        <v>-0.09338138095408656</v>
       </c>
       <c r="E78">
-        <v>0.06783755834856367</v>
+        <v>-0.03540280355596249</v>
       </c>
       <c r="F78">
-        <v>-0.09172274938825056</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.04894065373790844</v>
+      </c>
+      <c r="G78">
+        <v>0.01823289504276443</v>
+      </c>
+      <c r="H78">
+        <v>-0.1021387552929956</v>
+      </c>
+      <c r="I78">
+        <v>0.002689650407217945</v>
+      </c>
+      <c r="J78">
+        <v>-0.06664680741616157</v>
+      </c>
+      <c r="K78">
+        <v>0.1082625524505052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.0222868978077513</v>
+        <v>0.05732293381065024</v>
       </c>
       <c r="C79">
-        <v>-0.1468749973037994</v>
+        <v>-0.1370892573878552</v>
       </c>
       <c r="D79">
-        <v>0.1117274074235754</v>
+        <v>-0.07047463096109575</v>
       </c>
       <c r="E79">
-        <v>-0.09525295008696677</v>
+        <v>0.02150318108018663</v>
       </c>
       <c r="F79">
-        <v>-0.05016798439291954</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.05446850557850078</v>
+      </c>
+      <c r="G79">
+        <v>-0.0388617845885743</v>
+      </c>
+      <c r="H79">
+        <v>-0.2606463934998912</v>
+      </c>
+      <c r="I79">
+        <v>0.01758928478319177</v>
+      </c>
+      <c r="J79">
+        <v>-0.03257002114931996</v>
+      </c>
+      <c r="K79">
+        <v>-0.05300004911716942</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.006848223919274429</v>
+        <v>0.02003429525241001</v>
       </c>
       <c r="C80">
-        <v>-0.06217275775049344</v>
+        <v>-0.04594127113353158</v>
       </c>
       <c r="D80">
-        <v>0.03434474246129458</v>
+        <v>-0.03579779003785125</v>
       </c>
       <c r="E80">
-        <v>0.04157538953789571</v>
+        <v>-0.01237687473171398</v>
       </c>
       <c r="F80">
-        <v>-0.006414791449564267</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.0246716019062345</v>
+      </c>
+      <c r="G80">
+        <v>0.06219671451336171</v>
+      </c>
+      <c r="H80">
+        <v>0.08297712713983552</v>
+      </c>
+      <c r="I80">
+        <v>0.0189360168160914</v>
+      </c>
+      <c r="J80">
+        <v>0.01912332915235247</v>
+      </c>
+      <c r="K80">
+        <v>-0.02525958846735532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.001615948871205751</v>
+        <v>0.01699819601617795</v>
       </c>
       <c r="C81">
-        <v>-0.08024136327954096</v>
+        <v>-0.09682936491372172</v>
       </c>
       <c r="D81">
-        <v>0.05738181810264065</v>
+        <v>-0.05826185234303177</v>
       </c>
       <c r="E81">
-        <v>-0.09785378276399269</v>
+        <v>0.01849579221797087</v>
       </c>
       <c r="F81">
-        <v>-0.02696597386083685</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03431073597630724</v>
+      </c>
+      <c r="G81">
+        <v>-0.0233847226337286</v>
+      </c>
+      <c r="H81">
+        <v>-0.1166826958502628</v>
+      </c>
+      <c r="I81">
+        <v>-0.01220422498137679</v>
+      </c>
+      <c r="J81">
+        <v>-0.04555921930761393</v>
+      </c>
+      <c r="K81">
+        <v>-0.05555484930380452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01660282936026056</v>
+        <v>0.04703152785273807</v>
       </c>
       <c r="C82">
-        <v>-0.07287963515764617</v>
+        <v>-0.1051508994698434</v>
       </c>
       <c r="D82">
-        <v>0.06708556034856819</v>
+        <v>-0.06795643829937378</v>
       </c>
       <c r="E82">
-        <v>-0.09287961806909865</v>
+        <v>0.01353202262779457</v>
       </c>
       <c r="F82">
-        <v>-0.04368860926937013</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.06378447971699243</v>
+      </c>
+      <c r="G82">
+        <v>-0.04768194300322263</v>
+      </c>
+      <c r="H82">
+        <v>-0.08153522114306373</v>
+      </c>
+      <c r="I82">
+        <v>-0.02287460332343322</v>
+      </c>
+      <c r="J82">
+        <v>0.02576732793376445</v>
+      </c>
+      <c r="K82">
+        <v>-0.004740313185775982</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.01623498144691362</v>
+        <v>0.0006906685329393804</v>
       </c>
       <c r="C83">
-        <v>-0.007856132340193849</v>
+        <v>0.02092975106635853</v>
       </c>
       <c r="D83">
-        <v>-0.1050690872919075</v>
+        <v>0.05408046552616304</v>
       </c>
       <c r="E83">
-        <v>0.5677587976821741</v>
+        <v>0.09791492428800758</v>
       </c>
       <c r="F83">
-        <v>-0.7123464544960262</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.7138116031639311</v>
+      </c>
+      <c r="G83">
+        <v>0.6370174053055581</v>
+      </c>
+      <c r="H83">
+        <v>-0.005203551172332938</v>
+      </c>
+      <c r="I83">
+        <v>-0.0004184882876565485</v>
+      </c>
+      <c r="J83">
+        <v>0.1183886287956009</v>
+      </c>
+      <c r="K83">
+        <v>0.06411803673426532</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.007913289010040823</v>
+        <v>0.01489414876660414</v>
       </c>
       <c r="C84">
-        <v>-0.09649809711063655</v>
+        <v>-0.0627248921382768</v>
       </c>
       <c r="D84">
-        <v>0.01666887375668792</v>
+        <v>-0.08631587857398559</v>
       </c>
       <c r="E84">
-        <v>0.06296712979848297</v>
+        <v>-0.3009188907165889</v>
       </c>
       <c r="F84">
-        <v>0.1609867663743508</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.09067476316007332</v>
+      </c>
+      <c r="G84">
+        <v>0.07595358426572266</v>
+      </c>
+      <c r="H84">
+        <v>0.0897719872593781</v>
+      </c>
+      <c r="I84">
+        <v>-0.6306319219590555</v>
+      </c>
+      <c r="J84">
+        <v>0.6183533981170158</v>
+      </c>
+      <c r="K84">
+        <v>-0.1357199425228467</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.0004185800240200038</v>
+        <v>0.03128660831635265</v>
       </c>
       <c r="C85">
-        <v>-0.09851954500987362</v>
+        <v>-0.111938635576714</v>
       </c>
       <c r="D85">
-        <v>0.06391894865356328</v>
+        <v>-0.08266108511006842</v>
       </c>
       <c r="E85">
-        <v>-0.09478238749808333</v>
+        <v>0.02555482126052799</v>
       </c>
       <c r="F85">
-        <v>-0.04160211727453085</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.08265924347398379</v>
+      </c>
+      <c r="G85">
+        <v>-0.09527840789720078</v>
+      </c>
+      <c r="H85">
+        <v>-0.2295047331562534</v>
+      </c>
+      <c r="I85">
+        <v>0.007248304803106419</v>
+      </c>
+      <c r="J85">
+        <v>0.04817731172119898</v>
+      </c>
+      <c r="K85">
+        <v>-0.08034395357068484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01638692589979766</v>
+        <v>0.01484882236794417</v>
       </c>
       <c r="C86">
-        <v>-0.09348085326404039</v>
+        <v>-0.08070583606073277</v>
       </c>
       <c r="D86">
-        <v>0.001109729045003605</v>
+        <v>-0.037972666421487</v>
       </c>
       <c r="E86">
-        <v>0.008053864795719984</v>
+        <v>-0.05802970784465792</v>
       </c>
       <c r="F86">
-        <v>0.03720560125981162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.031328616169241</v>
+      </c>
+      <c r="G86">
+        <v>0.07454949264619311</v>
+      </c>
+      <c r="H86">
+        <v>-0.05949031136942952</v>
+      </c>
+      <c r="I86">
+        <v>0.0959375943790398</v>
+      </c>
+      <c r="J86">
+        <v>-0.07362346824396634</v>
+      </c>
+      <c r="K86">
+        <v>-0.1084935983041745</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.01039997497764948</v>
+        <v>0.0264960469893228</v>
       </c>
       <c r="C87">
-        <v>-0.1637250540243173</v>
+        <v>-0.1170349818602621</v>
       </c>
       <c r="D87">
-        <v>0.03024973453841207</v>
+        <v>-0.02167756854142373</v>
       </c>
       <c r="E87">
-        <v>0.08530214573148136</v>
+        <v>0.02843067303026212</v>
       </c>
       <c r="F87">
-        <v>0.08713705505656576</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.03420802200026044</v>
+      </c>
+      <c r="G87">
+        <v>0.03657893951975254</v>
+      </c>
+      <c r="H87">
+        <v>-0.01248603655466992</v>
+      </c>
+      <c r="I87">
+        <v>-0.03929556186813377</v>
+      </c>
+      <c r="J87">
+        <v>-0.01347457944103219</v>
+      </c>
+      <c r="K87">
+        <v>0.0887184663627501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.007425836025575283</v>
+        <v>0.03908512615043159</v>
       </c>
       <c r="C88">
-        <v>-0.03279593450412704</v>
+        <v>-0.0589698281998064</v>
       </c>
       <c r="D88">
-        <v>0.04063052478402997</v>
+        <v>-0.03908808040618081</v>
       </c>
       <c r="E88">
-        <v>-0.05356430392102224</v>
+        <v>0.02065426466280914</v>
       </c>
       <c r="F88">
-        <v>-0.01646369747439229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.003072031738997709</v>
+      </c>
+      <c r="G88">
+        <v>-0.02176039252430743</v>
+      </c>
+      <c r="H88">
+        <v>0.006639851013840148</v>
+      </c>
+      <c r="I88">
+        <v>0.008114008753372209</v>
+      </c>
+      <c r="J88">
+        <v>-0.01901301490127239</v>
+      </c>
+      <c r="K88">
+        <v>0.006689483662762479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4156888391526643</v>
+        <v>0.3896391701438832</v>
       </c>
       <c r="C89">
-        <v>0.07334001970767567</v>
+        <v>0.1239982371232289</v>
       </c>
       <c r="D89">
-        <v>0.08196704773353652</v>
+        <v>0.0388168491624766</v>
       </c>
       <c r="E89">
-        <v>0.05765558433402394</v>
+        <v>0.008169856142445907</v>
       </c>
       <c r="F89">
-        <v>0.06618878901460361</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.06544089847609527</v>
+      </c>
+      <c r="G89">
+        <v>0.01001305042090806</v>
+      </c>
+      <c r="H89">
+        <v>0.01139712074989545</v>
+      </c>
+      <c r="I89">
+        <v>-0.07225235256407361</v>
+      </c>
+      <c r="J89">
+        <v>0.03229109466898028</v>
+      </c>
+      <c r="K89">
+        <v>0.7403225672283023</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3061142164346421</v>
+        <v>0.3162572871921227</v>
       </c>
       <c r="C90">
-        <v>0.02131898521754966</v>
+        <v>0.08031111565945664</v>
       </c>
       <c r="D90">
-        <v>-0.00872653562538373</v>
+        <v>0.02293398917730598</v>
       </c>
       <c r="E90">
-        <v>0.04423318653963422</v>
+        <v>-0.008030530038876863</v>
       </c>
       <c r="F90">
-        <v>-0.01585825755519175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01719817722951736</v>
+      </c>
+      <c r="G90">
+        <v>0.02939383965051977</v>
+      </c>
+      <c r="H90">
+        <v>-0.0005470453295711771</v>
+      </c>
+      <c r="I90">
+        <v>-0.01203499991367431</v>
+      </c>
+      <c r="J90">
+        <v>0.00310247555245744</v>
+      </c>
+      <c r="K90">
+        <v>-0.1079242265715392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02721558265829802</v>
+        <v>0.0558906972486491</v>
       </c>
       <c r="C91">
-        <v>-0.07628089607468885</v>
+        <v>-0.07533445330875885</v>
       </c>
       <c r="D91">
-        <v>0.06262508002117365</v>
+        <v>-0.05605048833367702</v>
       </c>
       <c r="E91">
-        <v>-0.04953815348210474</v>
+        <v>0.03969078001631231</v>
       </c>
       <c r="F91">
-        <v>-0.0591435250890318</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.05503291637908868</v>
+      </c>
+      <c r="G91">
+        <v>-0.006208993801546354</v>
+      </c>
+      <c r="H91">
+        <v>-0.08995496018718668</v>
+      </c>
+      <c r="I91">
+        <v>0.01813719869866818</v>
+      </c>
+      <c r="J91">
+        <v>0.03201595522690264</v>
+      </c>
+      <c r="K91">
+        <v>-0.02014844476560482</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3743550124755448</v>
+        <v>0.3500030611394329</v>
       </c>
       <c r="C92">
-        <v>0.05582502081740754</v>
+        <v>0.1207260994008296</v>
       </c>
       <c r="D92">
-        <v>-0.02032637521179583</v>
+        <v>0.05497710726135695</v>
       </c>
       <c r="E92">
-        <v>-0.01654288777684355</v>
+        <v>0.001692651389692776</v>
       </c>
       <c r="F92">
-        <v>0.1196175009714882</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.06094982289938909</v>
+      </c>
+      <c r="G92">
+        <v>0.01350464921241091</v>
+      </c>
+      <c r="H92">
+        <v>-0.01355472551478622</v>
+      </c>
+      <c r="I92">
+        <v>-0.03154293816416751</v>
+      </c>
+      <c r="J92">
+        <v>-0.06054406592962119</v>
+      </c>
+      <c r="K92">
+        <v>-0.1394218329704288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3127321869645278</v>
+        <v>0.3085618782470703</v>
       </c>
       <c r="C93">
-        <v>0.06620830414592134</v>
+        <v>0.120976654951885</v>
       </c>
       <c r="D93">
-        <v>0.006821743607009548</v>
+        <v>0.009420651384904924</v>
       </c>
       <c r="E93">
-        <v>0.06469384440887092</v>
+        <v>-0.02722793602728971</v>
       </c>
       <c r="F93">
-        <v>0.04569658135344797</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.03202119694231832</v>
+      </c>
+      <c r="G93">
+        <v>0.03768734939980107</v>
+      </c>
+      <c r="H93">
+        <v>-0.04758537715023036</v>
+      </c>
+      <c r="I93">
+        <v>-0.004605816497362062</v>
+      </c>
+      <c r="J93">
+        <v>-0.03162850612227357</v>
+      </c>
+      <c r="K93">
+        <v>-0.134302727046885</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02520933737088229</v>
+        <v>0.08389075386042261</v>
       </c>
       <c r="C94">
-        <v>-0.1856215656427364</v>
+        <v>-0.1622387318896216</v>
       </c>
       <c r="D94">
-        <v>0.1129185926490774</v>
+        <v>-0.1136447395752622</v>
       </c>
       <c r="E94">
-        <v>-0.1741068341168227</v>
+        <v>0.04504721396803046</v>
       </c>
       <c r="F94">
-        <v>0.00596528903014734</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.08692087896849693</v>
+      </c>
+      <c r="G94">
+        <v>-0.09628980162747823</v>
+      </c>
+      <c r="H94">
+        <v>-0.5294955259266374</v>
+      </c>
+      <c r="I94">
+        <v>0.1227521087933064</v>
+      </c>
+      <c r="J94">
+        <v>0.235863770775452</v>
+      </c>
+      <c r="K94">
+        <v>0.02023320289274944</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02465921538099518</v>
+        <v>0.04335926502622935</v>
       </c>
       <c r="C95">
-        <v>-0.1351870703896533</v>
+        <v>-0.1347350940787584</v>
       </c>
       <c r="D95">
-        <v>0.05567802085347673</v>
+        <v>-0.06976897410214017</v>
       </c>
       <c r="E95">
-        <v>-0.1000737607560467</v>
+        <v>0.006498797119782014</v>
       </c>
       <c r="F95">
-        <v>-0.09189017877066182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02406599525384574</v>
+      </c>
+      <c r="G95">
+        <v>-0.08428396114054031</v>
+      </c>
+      <c r="H95">
+        <v>0.01636502237980289</v>
+      </c>
+      <c r="I95">
+        <v>-0.1024245755517537</v>
+      </c>
+      <c r="J95">
+        <v>0.04511994214964606</v>
+      </c>
+      <c r="K95">
+        <v>0.1272464504859593</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.000382597315315338</v>
+        <v>0.02330508234527933</v>
       </c>
       <c r="C97">
-        <v>0.0005348685130085303</v>
+        <v>-0.02711432371663523</v>
       </c>
       <c r="D97">
-        <v>-0.001371883908692644</v>
+        <v>-0.002568276408131146</v>
       </c>
       <c r="E97">
-        <v>-0.0006992965682600789</v>
+        <v>-0.04930511904366142</v>
       </c>
       <c r="F97">
-        <v>0.003180726955432085</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.007592150445528061</v>
+      </c>
+      <c r="G97">
+        <v>-0.01855662976514192</v>
+      </c>
+      <c r="H97">
+        <v>0.01097377042680256</v>
+      </c>
+      <c r="I97">
+        <v>0.01996992657666754</v>
+      </c>
+      <c r="J97">
+        <v>-0.03484427868593893</v>
+      </c>
+      <c r="K97">
+        <v>0.05689122797034524</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.09333821048735977</v>
+        <v>0.1392440699213293</v>
       </c>
       <c r="C98">
-        <v>-0.1585122446231106</v>
+        <v>-0.1629263019431877</v>
       </c>
       <c r="D98">
-        <v>0.1337885637472318</v>
+        <v>-0.09019536283214455</v>
       </c>
       <c r="E98">
-        <v>-0.1477780639636299</v>
+        <v>0.09158210385805654</v>
       </c>
       <c r="F98">
-        <v>-0.1887378275796846</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1462364841200182</v>
+      </c>
+      <c r="G98">
+        <v>-0.1715518284492526</v>
+      </c>
+      <c r="H98">
+        <v>0.3203603677216027</v>
+      </c>
+      <c r="I98">
+        <v>0.2164453180768149</v>
+      </c>
+      <c r="J98">
+        <v>0.1830273389589161</v>
+      </c>
+      <c r="K98">
+        <v>-0.1128279206073483</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03264375629962041</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.06942447298199883</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009663936214710504</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.9041094540816512</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.2136148358724603</v>
+      </c>
+      <c r="G99">
+        <v>-0.08462714929512802</v>
+      </c>
+      <c r="H99">
+        <v>0.003131086211067469</v>
+      </c>
+      <c r="I99">
+        <v>0.2436941799846871</v>
+      </c>
+      <c r="J99">
+        <v>-0.1225526534761968</v>
+      </c>
+      <c r="K99">
+        <v>0.06394599876015175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.008019025581351747</v>
+        <v>0.01772165061738403</v>
       </c>
       <c r="C101">
-        <v>-0.08234563184439238</v>
+        <v>-0.08044468450856865</v>
       </c>
       <c r="D101">
-        <v>0.0564560048267941</v>
+        <v>-0.04843811405510458</v>
       </c>
       <c r="E101">
-        <v>0.008053792975387893</v>
+        <v>0.01771196064498387</v>
       </c>
       <c r="F101">
-        <v>-0.02134263863059618</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03183241412998554</v>
+      </c>
+      <c r="G101">
+        <v>0.02815170276233003</v>
+      </c>
+      <c r="H101">
+        <v>0.1203418816841892</v>
+      </c>
+      <c r="I101">
+        <v>-0.198905844339363</v>
+      </c>
+      <c r="J101">
+        <v>-0.1926388057388269</v>
+      </c>
+      <c r="K101">
+        <v>-0.007476947901628962</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.0006584802113513919</v>
+        <v>0.0006925356551966304</v>
       </c>
       <c r="C102">
-        <v>-0.01137089555638473</v>
+        <v>-0.005328859261745922</v>
       </c>
       <c r="D102">
-        <v>-0.001225305439360759</v>
+        <v>0.001825113719252635</v>
       </c>
       <c r="E102">
-        <v>-0.01643361509444485</v>
+        <v>0.003593582962643242</v>
       </c>
       <c r="F102">
-        <v>-0.0190999212424099</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.008126637351348208</v>
+      </c>
+      <c r="G102">
+        <v>-0.003838092727365718</v>
+      </c>
+      <c r="H102">
+        <v>-0.0003955134862884247</v>
+      </c>
+      <c r="I102">
+        <v>-0.004704707146036854</v>
+      </c>
+      <c r="J102">
+        <v>-0.002503660687415789</v>
+      </c>
+      <c r="K102">
+        <v>0.02009760210408466</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
